--- a/Fibonacci-Data.xlsx
+++ b/Fibonacci-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89394d8577160f3e/Coursework/Year 1 - Winter Semester/COIS-2240H Software Design ^0 Modelling/Assignment 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\OneDrive\Coursework\Year 1 - Winter Semester\COIS-2240H Software Design &amp; Modelling\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3C3946E-BDED-4574-90B1-8ADD6D261534}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{B3C3946E-BDED-4574-90B1-8ADD6D261534}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{67E8DC14-6E90-448C-A1BD-4F50746D72B3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10167"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data-export" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +194,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -538,9 +544,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -587,24 +594,152 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,8 +755,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H11" totalsRowShown="0">
-  <autoFilter ref="A1:H11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:H11" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -632,16 +767,16 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Call Type"/>
-    <tableColumn id="2" name=" Term Length"/>
-    <tableColumn id="3" name=" Run #1" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="4" name=" Run #2" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="5" name=" Run #3" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="6" name=" Run #4" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="7" name=" Run #5" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="8" name=" Average Time" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Call Type" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=" Term Length" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" Run #1" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" Run #2" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name=" Run #3" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" Run #4" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name=" Run #5" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name=" Average Time" dataDxfId="2" dataCellStyle="Comma"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -941,310 +1076,311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.3515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.41015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="17.17578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="19.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>3100</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>400</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>300</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>300</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>299</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1600</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>500</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>500</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>401</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>500</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>30</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>1100</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>700</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>599</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>600</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>701</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>740</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>40</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>1300</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>900</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>900</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>900</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>800</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>960</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>50</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>1501</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>1000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>1000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>1000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>1100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>8100</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>6300</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>31700</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>15900</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>20399</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>16479</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>93100</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>78700</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>77699</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>77701</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>77200</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>80880</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>30</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>5583200</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>4143200</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>3747601</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>3736400</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>4003699</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>4242820</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>40</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>473670501</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>483178199</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>438209800</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>441196599</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>439313099</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>455113639</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>50</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>56855363901</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>56178132300</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>55503143400</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>55417022999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>55614584800</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>55913649480</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Fibonacci-Data.xlsx
+++ b/Fibonacci-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\OneDrive\Coursework\Year 1 - Winter Semester\COIS-2240H Software Design &amp; Modelling\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{B3C3946E-BDED-4574-90B1-8ADD6D261534}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{67E8DC14-6E90-448C-A1BD-4F50746D72B3}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{B3C3946E-BDED-4574-90B1-8ADD6D261534}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{28F8DE83-D24C-46EF-A718-DD953AEFB0DB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
   <si>
     <t>Call Type</t>
   </si>
@@ -608,34 +608,6 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -741,6 +713,34 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -755,7 +755,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H11" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -767,14 +767,14 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Call Type" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=" Term Length" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" Run #1" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" Run #2" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name=" Run #3" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" Run #4" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name=" Run #5" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name=" Average Time" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Call Type" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=" Term Length" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" Run #1" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" Run #2" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name=" Run #3" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" Run #4" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name=" Run #5" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name=" Average Time" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/Fibonacci-Data.xlsx
+++ b/Fibonacci-Data.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\OneDrive\Coursework\Year 1 - Winter Semester\COIS-2240H Software Design &amp; Modelling\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{B3C3946E-BDED-4574-90B1-8ADD6D261534}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{28F8DE83-D24C-46EF-A718-DD953AEFB0DB}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="8_{B3C3946E-BDED-4574-90B1-8ADD6D261534}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{492388EB-D271-4379-909A-5D5771F30F15}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10167" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data-export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="10">
   <si>
     <t>Call Type</t>
   </si>
@@ -754,6 +762,3003 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Iterative Calls</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average Time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'data-export'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-export'!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>860</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9154-48C3-859C-F53532F38C46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="671377816"/>
+        <c:axId val="671375192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="671377816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" cap="none" baseline="0"/>
+                  <a:t>Sequence Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671375192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="671375192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" cap="none" baseline="0"/>
+                  <a:t>Time (nanoseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671377816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Recursive Calls</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average Time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'data-export'!$B$7:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'data-export'!$H$7:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65840</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3550880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>444325520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59686319620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-41AB-472B-8650-BEF87D964864}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="897377344"/>
+        <c:axId val="897378328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="897377344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Sequence Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="897378328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="897378328"/>
+        <c:scaling>
+          <c:logBase val="16"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" cap="none" baseline="0"/>
+                  <a:t>Time (nanoseconds, log scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="897377344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>118100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>412533</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>24012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C531AFC5-1708-414A-88E9-D7D3FBA91D3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>530633</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1305424</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>17537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F49E4C-B944-49B6-9E3D-8A92A0787076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>118100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>24012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1305424</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>24012</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D807F6-942E-4CCA-BFE9-0C836A6D39DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="118100" y="5183698"/>
+              <a:ext cx="10211795" cy="2027020"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="504000">
+                <a:spcAft>
+                  <a:spcPts val="800"/>
+                </a:spcAft>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>	In all cases, the iterative call was</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> faster than the recurisve ones. As the axes of the two graphs show, the iterative method increases in time linearly, but the recursive method increases exponentially. This is because the iterative method requires a single call, each with </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> runs through a loop, for any sequence of length </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> For example, an </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>-value of 2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> requires two runs through a for-loop; an </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>-value of 4 requiers four runs</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> through a for-loop.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> The recursive method, however...</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr defTabSz="504000">
+                <a:spcAft>
+                  <a:spcPts val="800"/>
+                </a:spcAft>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>	For an </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>-value of 2, it must calls itself once using </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>−1=1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> and </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>−2=0</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>, for</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> a total of two calls</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>. For an </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>-value of 4, it calls itself once using </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>−1=3</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> and </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>−2=2</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>. The call which has </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=3</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> passed into it will call itself with </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>−1=2</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> and </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>−2=1</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>. Then,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> the two calls with </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=2</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> with,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> as we calculated before, each call two more times. This means we have, for an </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑛</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>-value of 4, calls itself six times.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr defTabSz="504000">
+                <a:spcAft>
+                  <a:spcPts val="800"/>
+                </a:spcAft>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t>	One of these is far more complex than the others. The iterative method is </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑂</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑛</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> complexity, and the recursive</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> method is </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑂</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑛</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> complexity</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="30000"/>
+                <a:t>[https://goo.gl/BhfqUZ]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>. This is why one increases in time linearly</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t>, and the other exponentially.</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D807F6-942E-4CCA-BFE9-0C836A6D39DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="118100" y="5183698"/>
+              <a:ext cx="10211795" cy="2027020"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="504000">
+                <a:spcAft>
+                  <a:spcPts val="800"/>
+                </a:spcAft>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>	In all cases, the iterative call was</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> faster than the recurisve ones. As the axes of the two graphs show, the iterative method increases in time linearly, but the recursive method increases exponentially. This is because the iterative method requires a single call, each with </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> runs through a loop, for any sequence of length </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> For example, an </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>-value of 2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> requires two runs through a for-loop; an </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>-value of 4 requiers four runs</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> through a for-loop.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> The recursive method, however...</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr defTabSz="504000">
+                <a:spcAft>
+                  <a:spcPts val="800"/>
+                </a:spcAft>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>	For an </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>-value of 2, it must calls itself once using </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛−1=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> and </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛−2=0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>, for</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> a total of two calls</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>. For an </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>-value of 4, it calls itself once using </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛−1=3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> and </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛−2=2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>. The call which has </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛=3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> passed into it will call itself with </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛−1=2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> and </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛−2=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>. Then,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> the two calls with </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛=2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> with,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> as we calculated before, each call two more times. This means we have, for an </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>-value of 4, calls itself six times.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr defTabSz="504000">
+                <a:spcAft>
+                  <a:spcPts val="800"/>
+                </a:spcAft>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t>	One of these is far more complex than the others. The iterative method is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑂(𝑛)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> complexity, and the recursive</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> method is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑂(𝑛^2 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t> complexity</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="30000"/>
+                <a:t>[https://goo.gl/BhfqUZ]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>. This is why one increases in time linearly</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t>, and the other exponentially.</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H11" xr:uid="{00000000-0009-0000-0100-000001000000}">
@@ -774,7 +3779,9 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name=" Run #3" dataDxfId="3" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" Run #4" dataDxfId="2" dataCellStyle="Comma"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name=" Run #5" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name=" Average Time" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name=" Average Time" dataDxfId="0" dataCellStyle="Comma">
+      <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[ Run '#1]:[ Run '#5]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1079,8 +4086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1124,22 +4131,23 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="D2" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E2" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F2" s="2">
         <v>300</v>
       </c>
       <c r="G2" s="2">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="H2" s="2">
-        <v>879</v>
+        <f>AVERAGE(Table1[[#This Row],[ Run '#1]:[ Run '#5]])</f>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.5">
@@ -1150,22 +4158,23 @@
         <v>20</v>
       </c>
       <c r="C3" s="2">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E3" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F3" s="2">
-        <v>401</v>
+        <v>300</v>
       </c>
       <c r="G3" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H3" s="2">
-        <v>700</v>
+        <f>AVERAGE(Table1[[#This Row],[ Run '#1]:[ Run '#5]])</f>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
@@ -1176,22 +4185,23 @@
         <v>30</v>
       </c>
       <c r="C4" s="2">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="D4" s="2">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E4" s="2">
-        <v>599</v>
+        <v>500</v>
       </c>
       <c r="F4" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G4" s="2">
-        <v>701</v>
+        <v>500</v>
       </c>
       <c r="H4" s="2">
-        <v>740</v>
+        <f>AVERAGE(Table1[[#This Row],[ Run '#1]:[ Run '#5]])</f>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
@@ -1202,22 +4212,23 @@
         <v>40</v>
       </c>
       <c r="C5" s="2">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="D5" s="2">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E5" s="2">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F5" s="2">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G5" s="2">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H5" s="2">
-        <v>960</v>
+        <f>AVERAGE(Table1[[#This Row],[ Run '#1]:[ Run '#5]])</f>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
@@ -1228,22 +4239,23 @@
         <v>50</v>
       </c>
       <c r="C6" s="2">
-        <v>1501</v>
+        <v>1100</v>
       </c>
       <c r="D6" s="2">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E6" s="2">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F6" s="2">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G6" s="2">
-        <v>999</v>
+        <v>800</v>
       </c>
       <c r="H6" s="2">
-        <v>1100</v>
+        <f>AVERAGE(Table1[[#This Row],[ Run '#1]:[ Run '#5]])</f>
+        <v>860</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.5">
@@ -1254,22 +4266,23 @@
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>8100</v>
+        <v>700</v>
       </c>
       <c r="D7" s="2">
-        <v>6300</v>
+        <v>1700</v>
       </c>
       <c r="E7" s="2">
-        <v>31700</v>
+        <v>500</v>
       </c>
       <c r="F7" s="2">
-        <v>15900</v>
+        <v>400</v>
       </c>
       <c r="G7" s="2">
-        <v>20399</v>
+        <v>400</v>
       </c>
       <c r="H7" s="2">
-        <v>16479</v>
+        <f>AVERAGE(Table1[[#This Row],[ Run '#1]:[ Run '#5]])</f>
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.5">
@@ -1280,22 +4293,23 @@
         <v>20</v>
       </c>
       <c r="C8" s="2">
-        <v>93100</v>
+        <v>66100</v>
       </c>
       <c r="D8" s="2">
-        <v>78700</v>
+        <v>103900</v>
       </c>
       <c r="E8" s="2">
-        <v>77699</v>
+        <v>69900</v>
       </c>
       <c r="F8" s="2">
-        <v>77701</v>
+        <v>45400</v>
       </c>
       <c r="G8" s="2">
-        <v>77200</v>
+        <v>43900</v>
       </c>
       <c r="H8" s="2">
-        <v>80880</v>
+        <f>AVERAGE(Table1[[#This Row],[ Run '#1]:[ Run '#5]])</f>
+        <v>65840</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.5">
@@ -1306,22 +4320,23 @@
         <v>30</v>
       </c>
       <c r="C9" s="2">
-        <v>5583200</v>
+        <v>3902000</v>
       </c>
       <c r="D9" s="2">
-        <v>4143200</v>
+        <v>3372200</v>
       </c>
       <c r="E9" s="2">
-        <v>3747601</v>
+        <v>3490900</v>
       </c>
       <c r="F9" s="2">
-        <v>3736400</v>
+        <v>3371400</v>
       </c>
       <c r="G9" s="2">
-        <v>4003699</v>
+        <v>3617900</v>
       </c>
       <c r="H9" s="2">
-        <v>4242820</v>
+        <f>AVERAGE(Table1[[#This Row],[ Run '#1]:[ Run '#5]])</f>
+        <v>3550880</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.5">
@@ -1332,22 +4347,23 @@
         <v>40</v>
       </c>
       <c r="C10" s="2">
-        <v>473670501</v>
+        <v>436355800</v>
       </c>
       <c r="D10" s="2">
-        <v>483178199</v>
+        <v>442960700</v>
       </c>
       <c r="E10" s="2">
-        <v>438209800</v>
+        <v>448699700</v>
       </c>
       <c r="F10" s="2">
-        <v>441196599</v>
+        <v>444652700</v>
       </c>
       <c r="G10" s="2">
-        <v>439313099</v>
+        <v>448958700</v>
       </c>
       <c r="H10" s="2">
-        <v>455113639</v>
+        <f>AVERAGE(Table1[[#This Row],[ Run '#1]:[ Run '#5]])</f>
+        <v>444325520</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
@@ -1358,29 +4374,31 @@
         <v>50</v>
       </c>
       <c r="C11" s="2">
-        <v>56855363901</v>
+        <v>54956136000</v>
       </c>
       <c r="D11" s="2">
-        <v>56178132300</v>
+        <v>61174416500</v>
       </c>
       <c r="E11" s="2">
-        <v>55503143400</v>
+        <v>61872311500</v>
       </c>
       <c r="F11" s="2">
-        <v>55417022999</v>
+        <v>60105766400</v>
       </c>
       <c r="G11" s="2">
-        <v>55614584800</v>
+        <v>60322967700</v>
       </c>
       <c r="H11" s="2">
-        <v>55913649480</v>
+        <f>AVERAGE(Table1[[#This Row],[ Run '#1]:[ Run '#5]])</f>
+        <v>59686319620</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="62" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>